--- a/MarsAtlasROI.xlsx
+++ b/MarsAtlasROI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yinsh\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{91220CA7-6713-41F7-BFBF-CC10F365D460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6CC902-7A11-4265-A2D9-C136EE4A850F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{E0284344-8B9D-459F-916E-517683CFBAFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{E0284344-8B9D-459F-916E-517683CFBAFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +938,8 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>101</v>
+        <f>A2+41</f>
+        <v>42</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -958,7 +959,8 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>102</v>
+        <f t="shared" ref="B3:B42" si="0">A3+41</f>
+        <v>43</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -978,7 +980,8 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>103</v>
+        <f t="shared" si="0"/>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
@@ -998,7 +1001,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>104</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -1018,7 +1022,8 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>105</v>
+        <f t="shared" si="0"/>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>19</v>
@@ -1038,7 +1043,8 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>106</v>
+        <f t="shared" si="0"/>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -1058,7 +1064,8 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>107</v>
+        <f t="shared" si="0"/>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>25</v>
@@ -1078,7 +1085,8 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>108</v>
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -1098,7 +1106,8 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>109</v>
+        <f t="shared" si="0"/>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>30</v>
@@ -1118,7 +1127,8 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>110</v>
+        <f t="shared" si="0"/>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -1138,7 +1148,8 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>111</v>
+        <f t="shared" si="0"/>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>36</v>
@@ -1158,7 +1169,8 @@
         <v>13</v>
       </c>
       <c r="B13" s="1">
-        <v>113</v>
+        <f t="shared" si="0"/>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>39</v>
@@ -1178,7 +1190,8 @@
         <v>14</v>
       </c>
       <c r="B14" s="1">
-        <v>114</v>
+        <f t="shared" si="0"/>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>42</v>
@@ -1198,7 +1211,8 @@
         <v>15</v>
       </c>
       <c r="B15" s="1">
-        <v>115</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>45</v>
@@ -1218,7 +1232,8 @@
         <v>16</v>
       </c>
       <c r="B16" s="1">
-        <v>116</v>
+        <f t="shared" si="0"/>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>47</v>
@@ -1238,7 +1253,8 @@
         <v>17</v>
       </c>
       <c r="B17" s="1">
-        <v>117</v>
+        <f t="shared" si="0"/>
+        <v>58</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>49</v>
@@ -1258,7 +1274,8 @@
         <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>119</v>
+        <f t="shared" si="0"/>
+        <v>60</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>51</v>
@@ -1278,7 +1295,8 @@
         <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>120</v>
+        <f t="shared" si="0"/>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>53</v>
@@ -1298,7 +1316,8 @@
         <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>121</v>
+        <f t="shared" si="0"/>
+        <v>62</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>55</v>
@@ -1318,7 +1337,8 @@
         <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>112</v>
+        <f t="shared" si="0"/>
+        <v>53</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>58</v>
@@ -1338,7 +1358,8 @@
         <v>18</v>
       </c>
       <c r="B22" s="1">
-        <v>118</v>
+        <f t="shared" si="0"/>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>61</v>
@@ -1358,7 +1379,8 @@
         <v>30</v>
       </c>
       <c r="B23" s="1">
-        <v>130</v>
+        <f t="shared" si="0"/>
+        <v>71</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>63</v>
@@ -1378,7 +1400,8 @@
         <v>40</v>
       </c>
       <c r="B24" s="1">
-        <v>140</v>
+        <f t="shared" si="0"/>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>65</v>
@@ -1398,7 +1421,8 @@
         <v>22</v>
       </c>
       <c r="B25" s="1">
-        <v>122</v>
+        <f t="shared" si="0"/>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>68</v>
@@ -1418,7 +1442,8 @@
         <v>23</v>
       </c>
       <c r="B26" s="1">
-        <v>123</v>
+        <f t="shared" si="0"/>
+        <v>64</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>71</v>
@@ -1438,7 +1463,8 @@
         <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>124</v>
+        <f t="shared" si="0"/>
+        <v>65</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>73</v>
@@ -1458,7 +1484,8 @@
         <v>25</v>
       </c>
       <c r="B28" s="1">
-        <v>125</v>
+        <f t="shared" si="0"/>
+        <v>66</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>75</v>
@@ -1478,7 +1505,8 @@
         <v>26</v>
       </c>
       <c r="B29" s="1">
-        <v>126</v>
+        <f t="shared" si="0"/>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>78</v>
@@ -1498,7 +1526,8 @@
         <v>27</v>
       </c>
       <c r="B30" s="1">
-        <v>127</v>
+        <f t="shared" si="0"/>
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>80</v>
@@ -1518,7 +1547,8 @@
         <v>28</v>
       </c>
       <c r="B31" s="1">
-        <v>128</v>
+        <f t="shared" si="0"/>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>82</v>
@@ -1538,7 +1568,8 @@
         <v>29</v>
       </c>
       <c r="B32" s="1">
-        <v>129</v>
+        <f t="shared" si="0"/>
+        <v>70</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>85</v>
@@ -1558,7 +1589,8 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>131</v>
+        <f t="shared" si="0"/>
+        <v>72</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>87</v>
@@ -1578,7 +1610,8 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>132</v>
+        <f t="shared" si="0"/>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>90</v>
@@ -1598,7 +1631,8 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>133</v>
+        <f t="shared" si="0"/>
+        <v>74</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>92</v>
@@ -1618,7 +1652,8 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>134</v>
+        <f t="shared" si="0"/>
+        <v>75</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>94</v>
@@ -1638,7 +1673,8 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>135</v>
+        <f t="shared" si="0"/>
+        <v>76</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>96</v>
@@ -1658,7 +1694,8 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>136</v>
+        <f t="shared" si="0"/>
+        <v>77</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>98</v>
@@ -1678,7 +1715,8 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>137</v>
+        <f t="shared" si="0"/>
+        <v>78</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>101</v>
@@ -1698,7 +1736,8 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>138</v>
+        <f t="shared" si="0"/>
+        <v>79</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>103</v>
@@ -1718,7 +1757,8 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>139</v>
+        <f t="shared" si="0"/>
+        <v>80</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>105</v>
@@ -1733,12 +1773,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>41</v>
       </c>
-      <c r="B42" s="11">
-        <v>141</v>
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>82</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>108</v>
